--- a/data/income_statement/2digits/total/55_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/55_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>55-Accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>55-Accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>11899219.8935</v>
+        <v>11899421.5021</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>14271852.55358</v>
+        <v>14272015.81907</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18614405.11507</v>
+        <v>18615261.8136</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>20329002.35659</v>
+        <v>20334279.03433</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>23921779.00622001</v>
+        <v>24107916.43891</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27972129.36064</v>
+        <v>28463976.70625</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>29914745.70526</v>
+        <v>31007236.16655</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>23882035.52232</v>
+        <v>24144541.16688</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>34617376.01372</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>57999360.26317001</v>
+        <v>58054727.75422001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>70135743.61024003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>71010023.27989002</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36078629.174</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>10876644.05034</v>
+        <v>10876827.84984</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>13026976.80081</v>
+        <v>13027137.3019</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17343386.75628</v>
+        <v>17344243.45481</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19130171.27201</v>
+        <v>19135085.44142</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>22350658.46298</v>
+        <v>22531938.89905</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>26417743.91786001</v>
+        <v>26891894.99234</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>28149313.57849</v>
+        <v>29210287.99872</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>22624015.52326</v>
+        <v>22881540.99189</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>32862733.99749999</v>
+        <v>32862733.9975</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>53258723.97868001</v>
+        <v>53311979.64595</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>66512272.13745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>67350952.80954</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>33758948.727</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>749402.2620699999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>806001.8249800002</v>
+        <v>806001.82498</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>829607.0491600001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>711085.9123199999</v>
+        <v>711368.68336</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>963694.26247</v>
+        <v>965208.8170099999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>906531.1021400001</v>
+        <v>906542.9672299998</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>987196.3767099999</v>
+        <v>992842.0092999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>383257.9610700001</v>
+        <v>383260.56497</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>647216.92016</v>
+        <v>647216.9201599999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1450835.24301</v>
+        <v>1452084.8185</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1365936.97842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1384873.61481</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>821931.7929999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>273173.5810900001</v>
+        <v>273191.3901899999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>438873.92779</v>
+        <v>438876.69219</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>441411.30963</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>487745.17226</v>
+        <v>487824.9095499999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>607426.2807700001</v>
+        <v>610768.72285</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>647854.34064</v>
+        <v>665538.7466800001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>778235.7500600001</v>
+        <v>804106.15853</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>874762.0379899999</v>
+        <v>879739.61002</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1107425.09606</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3289801.04148</v>
+        <v>3290663.289770001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2257534.49437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2274196.85554</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1497748.654</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>176474.71677</v>
+        <v>176474.83408</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>194271.7859</v>
+        <v>194272.04017</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>236097.14906</v>
+        <v>236098.7485</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>276944.64079</v>
+        <v>276952.49885</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>320698.6016200001</v>
+        <v>322966.1370100001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>472687.5193</v>
+        <v>488884.57695</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>607271.2870599999</v>
+        <v>624024.7070699998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>626253.30389</v>
+        <v>638460.6206600001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>890630.0926100001</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>3075851.817659999</v>
+        <v>3075930.18709</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1720700.49665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1746778.15364</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1451559.181</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>86035.31835999999</v>
+        <v>86035.43567000004</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>89381.07937000001</v>
+        <v>89381.33364</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>104546.99071</v>
+        <v>104548.59015</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>136659.21078</v>
+        <v>136666.13284</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>155704.01337</v>
+        <v>157301.18071</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>266003.91321</v>
+        <v>267806.43926</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>301121.8530299999</v>
+        <v>308031.93979</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>375328.1753599999</v>
+        <v>378948.92738</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>514183.57907</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>696261.50454</v>
+        <v>696339.8739699998</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>898177.48726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>902634.66633</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>947215.9669999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>63625.97103</v>
+        <v>63625.97102999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>75271.74923999999</v>
+        <v>75271.74924</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>106473.52268</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>116866.45106</v>
+        <v>116867.38706</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>139307.29359</v>
+        <v>139961.53949</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>170255.7342800001</v>
+        <v>183923.15593</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>268173.57741</v>
+        <v>277345.93293</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>212626.57607</v>
+        <v>221083.88569</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>332195.13663</v>
+        <v>332195.1366300001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>2315179.26029</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>627399.97042</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>648631.76487</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>358381.803</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>26813.42738</v>
+        <v>26813.42737999999</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>29618.95729</v>
@@ -1235,109 +1176,124 @@
         <v>23418.97895</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>25687.29466</v>
+        <v>25703.41681</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>36427.87181</v>
+        <v>37154.98176</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>37975.85661999999</v>
+        <v>38646.83435</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>38298.55245999999</v>
+        <v>38427.80759</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>44251.37691</v>
+        <v>44251.37691000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>64411.05283000001</v>
+        <v>64411.05283</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>195123.03897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>195511.72244</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>145961.411</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>11722745.17673</v>
+        <v>11722946.66802</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>14077580.76768</v>
+        <v>14077743.7789</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>18378307.96601</v>
+        <v>18379163.06510001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>20052057.7158</v>
+        <v>20057326.53548</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>23601080.4046</v>
+        <v>23784950.3019</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>27499441.84134</v>
+        <v>27975092.1293</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>29307474.4182</v>
+        <v>30383211.45948</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>23255782.21843</v>
+        <v>23506080.54622</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>33726745.92111</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>54923508.44551001</v>
+        <v>54978797.56713001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>68415043.11359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>69263245.12625</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34627069.993</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7958350.035449999</v>
+        <v>7958626.27785</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>9675326.749760002</v>
+        <v>9675478.019810002</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>11924247.17943</v>
+        <v>11924816.13813</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>13745170.36136</v>
+        <v>13748687.71633</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16106267.38522</v>
+        <v>16261090.29186</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>18959886.56778</v>
+        <v>19263920.03783</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>20752221.95386001</v>
+        <v>21493608.33874</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>18863026.94048</v>
+        <v>19050843.85236</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>23998832.17421</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>32438201.21497</v>
+        <v>32472765.08483</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>42876926.01687999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>43516454.26648999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26175337.028</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>341549.87691</v>
@@ -1349,34 +1305,39 @@
         <v>319170.8588</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>400297.1859900001</v>
+        <v>400393.1122</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>484934.48197</v>
+        <v>487158.87128</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>637011.5816799998</v>
+        <v>640688.4709199999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>548172.9195399999</v>
+        <v>598960.0662199999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>591361.3772600001</v>
+        <v>591962.74022</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1014456.45131</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1048816.39575</v>
+        <v>1049935.85741</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1455032.671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1474330.45413</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1331274.588</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>535685.99346</v>
@@ -1388,73 +1349,83 @@
         <v>882683.55243</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>872440.2856700001</v>
+        <v>872603.68265</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>946604.6743700001</v>
+        <v>947135.9235000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1015007.88581</v>
+        <v>1021271.38833</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1143151.52816</v>
+        <v>1163330.63502</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1326094.37586</v>
+        <v>1331948.65123</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1779558.43679</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1996636.14302</v>
+        <v>2010463.87205</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2923109.59958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2962098.87636</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2992352.652</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7054008.836319999</v>
+        <v>7054285.07872</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>8750031.786070002</v>
+        <v>8750183.056120001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>10635198.99107</v>
+        <v>10635767.94977</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>12439273.20229</v>
+        <v>12442531.23407</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14616381.48235</v>
+        <v>14768448.75055</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>17236631.61862</v>
+        <v>17530587.87422</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>18983161.24289</v>
+        <v>19653561.36586</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>16825965.67346999</v>
+        <v>17005897.91888</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>20932635.886</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>29269060.14167</v>
+        <v>29288604.43485</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>38257567.23519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>38827790.16332</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>21584162.008</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>27105.32876</v>
@@ -1466,112 +1437,127 @@
         <v>87193.77713000002</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>33159.68741000001</v>
+        <v>33159.68741</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>58346.74653</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>71235.48166999999</v>
+        <v>71372.30435999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>77736.26326999998</v>
+        <v>77756.27163999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>119605.51389</v>
+        <v>121034.54203</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>272181.40011</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>123688.53453</v>
+        <v>123760.92052</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>241216.51111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>252234.77268</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>267547.78</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3764395.141279999</v>
+        <v>3764320.39017</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4402254.01792</v>
+        <v>4402265.759089999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6454060.786579999</v>
+        <v>6454346.92697</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6306887.354440001</v>
+        <v>6308638.81915</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>7494813.019379999</v>
+        <v>7523860.010040001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>8539555.273559999</v>
+        <v>8711172.091470001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8555252.464339999</v>
+        <v>8889603.12074</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4392755.27795</v>
+        <v>4455236.693860001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>9727913.746899998</v>
+        <v>9727913.7469</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22485307.23054</v>
+        <v>22506032.4823</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>25538117.09671</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>25746790.85976</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8451732.965</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2905449.24267</v>
+        <v>2905485.88846</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3458080.667619999</v>
+        <v>3458113.21339</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4075838.72492</v>
+        <v>4075933.10659</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4533975.566979999</v>
+        <v>4535721.46929</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>5281551.131600001</v>
+        <v>5309034.535699999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>6283138.62824</v>
+        <v>6387330.92221</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6845967.93425</v>
+        <v>7100460.491309999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>6672082.426849999</v>
+        <v>6723233.16535</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7501333.36415</v>
+        <v>7501333.364150001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10384151.16724</v>
+        <v>10398706.66919</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>13080467.14873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13277008.79953</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>10154415.604</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>180.49795</v>
@@ -1598,181 +1584,206 @@
         <v>1596.11911</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>403.3991600000001</v>
+        <v>403.39916</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>6654.328199999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11147.46244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12276.135</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9668.406000000001</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>305871.74753</v>
+        <v>305872.76236</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>375388.90836</v>
+        <v>375388.93336</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>483956.2573800001</v>
+        <v>484006.89978</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>553204.07638</v>
+        <v>553220.8759699999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>664004.97752</v>
+        <v>668783.0212300002</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>834591.9810899999</v>
+        <v>853117.5199499999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>976398.1570899998</v>
+        <v>1007504.44504</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>889842.0989099997</v>
+        <v>897180.1298800001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>1144531.60397</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1741515.10795</v>
+        <v>1742526.08691</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2157872.60212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2186418.56666</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1313922.518</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>2599396.99719</v>
+        <v>2599432.62815</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3080469.420549999</v>
+        <v>3080501.94132</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>3590122.27997</v>
+        <v>3590166.01924</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>3978519.781349999</v>
+        <v>3980248.88407</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>4616396.26984</v>
+        <v>4639101.630229999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>5448369.162359999</v>
+        <v>5534035.91747</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5868533.81168</v>
+        <v>6091920.08079</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5780644.20883</v>
+        <v>5824456.916359999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>6356398.36102</v>
+        <v>6356398.361020001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>8635981.73109</v>
+        <v>8649526.254079998</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>10911447.08417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>11078314.09787</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8830824.68</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>858945.89861</v>
+        <v>858834.50171</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>944173.3503</v>
+        <v>944152.5457</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2378222.06166</v>
+        <v>2378413.82038</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1772911.78746</v>
+        <v>1772917.34986</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2213261.88778</v>
+        <v>2214825.47434</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2256416.64532</v>
+        <v>2323841.16926</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1709284.53009</v>
+        <v>1789142.62943</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2279327.148900001</v>
+        <v>-2267996.47149</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2226580.38275</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>12101156.0633</v>
+        <v>12107325.81311</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>12457649.94798</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12469782.06023</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1702682.639</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1409709.81638</v>
+        <v>1409710.28484</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1648572.67704</v>
+        <v>1648572.75309</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2577404.70797</v>
+        <v>2577405.190229999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2365918.08708</v>
+        <v>2366283.22145</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3642701.1325</v>
+        <v>3663890.23182</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4543186.60561</v>
+        <v>4642754.30791</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6770605.746269999</v>
+        <v>7016442.364010001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5069646.836949999</v>
+        <v>5145466.889489999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>6698636.04666</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>24718961.15533</v>
+        <v>24719200.62798</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13798976.77041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13920551.14977</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18015782.702</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16484.61165</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6786.59345</v>
+        <v>6786.593449999999</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>19636.69607</v>
@@ -1784,28 +1795,33 @@
         <v>148973.41072</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>92218.01148</v>
+        <v>92538.10633999998</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>66083.34122</v>
+        <v>69138.4102</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>398489.92708</v>
+        <v>398507.63822</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>97385.14896999999</v>
+        <v>97385.14896999998</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>137165.32637</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>168748.4573</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>168928.34396</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>86330.973</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2195.95375</v>
@@ -1823,16 +1839,16 @@
         <v>22652.55611</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>44214.12951999999</v>
+        <v>44214.12952</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>120777.83328</v>
+        <v>128081.25664</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>14534.77957</v>
+        <v>15844.91568</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>98228.86636999999</v>
+        <v>98228.86637</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>25965.8308</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>145527.1244</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>61449.212</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>145523.4749</v>
@@ -1856,40 +1877,45 @@
         <v>197736.3926</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>272057.5711199999</v>
+        <v>272349.37362</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>296305.65303</v>
+        <v>297792.17543</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>378412.5241000001</v>
+        <v>382997.48707</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>422563.2983</v>
+        <v>436541.10271</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>436499.39181</v>
+        <v>441535.53705</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>600565.9629299999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1035375.45955</v>
+        <v>1035381.4833</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1114287.55353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1124523.41164</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>982988.704</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3111.20693</v>
+        <v>3111.206930000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6661.412600000001</v>
+        <v>6661.4126</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>9098.587600000001</v>
@@ -1901,28 +1927,33 @@
         <v>3464.2036</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>7622.971090000001</v>
+        <v>7623.03073</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>6748.06617</v>
+        <v>6787.18093</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>8924.642459999999</v>
+        <v>8927.557289999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>3998.44705</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>34320.96385999999</v>
+        <v>34320.96386</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>29722.87374</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>13179.744</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>49739.31136</v>
@@ -1940,13 +1971,13 @@
         <v>91254.67096</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>91279.19364000001</v>
+        <v>91296.50464000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>86161.08375000002</v>
+        <v>87379.26914</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>98194.39343</v>
+        <v>98366.43312</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>106157.43633</v>
@@ -1955,37 +1986,42 @@
         <v>130685.94327</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>119540.28738</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>120305.67624</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>102794.471</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>13477.86658</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>30446.40997</v>
+        <v>30446.40996999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>29175.32025999999</v>
+        <v>29175.32026</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>36695.89554</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>82675.38192</v>
+        <v>82676.39</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>364183.7220499999</v>
+        <v>378065.5798899999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>192429.63325</v>
+        <v>196286.05774</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>121906.30144</v>
+        <v>121917.5172</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>102816.7334</v>
@@ -1994,55 +2030,65 @@
         <v>453884.74519</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>364259.1345399999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>364265.04669</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>101965.657</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>793378.0819500001</v>
+        <v>793378.5504099999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>1173459.21991</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1853434.24989</v>
+        <v>1853434.58567</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1556686.41411</v>
+        <v>1556695.47641</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2463785.21832</v>
+        <v>2481778.65317</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2948875.80712</v>
+        <v>3019793.73524</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5137144.49417</v>
+        <v>5325879.414030001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3310429.835189999</v>
+        <v>3357381.32029</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4934222.782400002</v>
+        <v>4934222.7824</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>21710060.99864</v>
+        <v>21710266.7053</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10456542.23648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10516005.77989</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15518221.615</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>3991.787050000001</v>
+        <v>3991.78705</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>2531.78509</v>
@@ -2054,16 +2100,16 @@
         <v>1684.64375</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>9510.12113</v>
+        <v>9510.121130000001</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>2409.08115</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>937.32699</v>
+        <v>1286.82649</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>8278.25058</v>
+        <v>8542.89104</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2392.48003</v>
@@ -2072,13 +2118,18 @@
         <v>2074.17828</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>13113.39022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>13111.04182</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>13783.195</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1032.77564</v>
@@ -2096,7 +2147,7 @@
         <v>663.0097099999999</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>681.3022800000001</v>
+        <v>681.30228</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>581.5229399999999</v>
@@ -2105,7 +2156,7 @@
         <v>2375.17582</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>565.9622599999999</v>
+        <v>565.96226</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>2354.56753</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>965.0551499999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1302.732</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>380774.74657</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>256724.21496</v>
+        <v>256724.29101</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>437962.2280599999</v>
+        <v>437962.37454</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>394579.5714600001</v>
+        <v>394643.84103</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>523416.9069999999</v>
+        <v>525125.0409899999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>613289.8631800001</v>
+        <v>623135.3510500001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>737179.1462</v>
+        <v>764481.32319</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>670014.1395699999</v>
+        <v>692067.9037799999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>752302.2269199999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1187073.14184</v>
+        <v>1187100.88408</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1386270.65767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1437196.79624</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1133766.399</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>913665.1109200001</v>
+        <v>913665.1464000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>988774.32612</v>
+        <v>988808.20899</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2907727.157749999</v>
+        <v>2907744.391919999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1185863.66229</v>
+        <v>1185948.1969</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4400530.706539999</v>
+        <v>4458239.788930001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3056172.08157</v>
+        <v>3105230.72617</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7441164.83187</v>
+        <v>7640566.126199999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6261675.122459999</v>
+        <v>6307490.981020001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>8809870.894200001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>29719102.97153</v>
+        <v>29719264.81898</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14507895.82042</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14621596.88325</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>27479562.313</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>28227.11262</v>
@@ -2207,34 +2273,39 @@
         <v>51112.38476</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>58477.09827</v>
+        <v>58478.28956</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>74077.05424</v>
+        <v>75090.75766</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>91744.85175000002</v>
+        <v>95161.51689</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>106158.36224</v>
+        <v>115944.59183</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>94507.36221000002</v>
+        <v>94921.75389000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>127365.46527</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>202719.0248</v>
+        <v>202733.80659</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>261942.28254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>254368.29296</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>126706.726</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>52142.47015000001</v>
@@ -2249,16 +2320,16 @@
         <v>22845.96987</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>83759.39986</v>
+        <v>83984.2507</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>81953.35045</v>
+        <v>84725.55973000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>139766.56849</v>
+        <v>148401.33481</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>97787.00060000001</v>
+        <v>98217.48460000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>56257.33852</v>
@@ -2267,13 +2338,18 @@
         <v>87846.80849</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>672090.9987500001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>670062.75434</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>280641.65</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>17928.3971</v>
@@ -2291,10 +2367,10 @@
         <v>27532.62323</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>15298.42835</v>
+        <v>15721.2191</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4202.581480000001</v>
+        <v>6935.151769999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>4672.647010000001</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>12100.00477</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>54934.571</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>705825.39212</v>
+        <v>705825.4276000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>839386.1586699999</v>
+        <v>839386.1620300001</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2634876.58861</v>
+        <v>2634877.138360001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>968143.0389899998</v>
+        <v>968162.94319</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4071874.96336</v>
+        <v>4127978.89767</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2714972.01544</v>
+        <v>2757075.59119</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6995759.75742</v>
+        <v>7171117.813899999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5957360.806929999</v>
+        <v>6001666.528860001</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>8448108.99358</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>29189992.11341</v>
+        <v>29190014.47557</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13202236.57757</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>13321221.88938</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>26667044.244</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2608.854</v>
@@ -2369,28 +2455,33 @@
         <v>3580.72228</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>3599.236470000001</v>
+        <v>3599.23647</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1030.99828</v>
+        <v>1380.86314</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>2947.237360000001</v>
+        <v>3282.18839</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1468.37047</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3935.494569999999</v>
+        <v>4005.59989</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>15045.54826</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>8780.143</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>18.53429</v>
@@ -2408,10 +2499,10 @@
         <v>188.79676</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>54.52982</v>
+        <v>237.9147</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>382.19387</v>
+        <v>473.1485300000001</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>82.61281</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>233.75924</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>106914.35064</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>53139.48474</v>
+        <v>53173.36425</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>120688.15563</v>
+        <v>120704.84005</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>108768.30424</v>
+        <v>108831.74336</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>139517.14681</v>
+        <v>139883.74063</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>148549.66929</v>
+        <v>148709.68809</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>193864.37009</v>
+        <v>196313.22222</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>104317.45554</v>
+        <v>104647.76546</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>172280.9009</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>220393.3877</v>
+        <v>220447.98588</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>344246.64929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>348564.6343000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>341439.339</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>850371.6610100002</v>
+        <v>850371.8660899999</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>800039.0662800001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1605453.06706</v>
+        <v>1605453.61342</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1213454.79198</v>
+        <v>1214044.66694</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2522098.54764</v>
+        <v>2534198.649139999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1964449.86756</v>
+        <v>2060346.22121</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3295661.02679</v>
+        <v>3642571.75889</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3934785.53875</v>
+        <v>3960164.57641</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5017774.69051</v>
+        <v>5017774.690510001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>11790460.51957</v>
+        <v>11790879.47617</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7856966.980649999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7909898.003849999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11686244.838</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>565106.8952900001</v>
+        <v>565107.10037</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>504943.98129</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>890304.98654</v>
+        <v>890305.5329000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>836991.1539800002</v>
+        <v>837581.0289400001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1544066.82313</v>
+        <v>1552735.95631</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1281541.63768</v>
+        <v>1300331.59699</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1859945.4702</v>
+        <v>1956059.76241</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2159470.67507</v>
+        <v>2177525.23152</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2703545.91756</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5388856.682870001</v>
+        <v>5389211.528729999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4329570.21059</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4365458.694159999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5466676.604</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>285264.76572</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>295095.0849899999</v>
+        <v>295095.08499</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>715148.08052</v>
+        <v>715148.0805200001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>376463.6379999999</v>
+        <v>376463.638</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>978031.72451</v>
+        <v>981462.69283</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>682908.22988</v>
+        <v>760014.62422</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1435715.55659</v>
+        <v>1686511.99648</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1775314.86368</v>
+        <v>1782639.34489</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>2314228.77295</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6401603.836699999</v>
+        <v>6401667.947439999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3527396.77006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3544439.30969</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>6219568.234</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>504618.94306</v>
+        <v>504507.77406</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>803932.6349400001</v>
+        <v>803878.0235199999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>442446.5448200001</v>
+        <v>442621.00527</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1739511.42027</v>
+        <v>1739207.70747</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1066666.2339</v>
+        <v>-1113722.73191</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1778981.3018</v>
+        <v>1801018.52979</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-2256935.582300001</v>
+        <v>-2477552.89165</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-7406140.97316</v>
+        <v>-7390185.13943</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-4902429.1553</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-4689446.272469999</v>
+        <v>-4683617.85406</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>3891763.91732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3858838.322899999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-22852707.088</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>318903.66618</v>
+        <v>318938.0959</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>303486.92278</v>
+        <v>303500.4043</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>387724.4358</v>
+        <v>387740.11246</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>344372.1636500001</v>
+        <v>344373.64551</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1014409.07362</v>
+        <v>1016495.04213</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1141927.02817</v>
+        <v>1221173.10116</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1201932.74529</v>
+        <v>1357526.70713</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1109692.2237</v>
+        <v>1117660.90727</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1278325.48075</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1191231.25739</v>
+        <v>1191448.45098</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2089184.20711</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2105022.24852</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1347009.249</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>15524.85314</v>
@@ -2675,112 +2801,127 @@
         <v>7841.56365</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>8045.62154</v>
+        <v>8045.621539999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4709.7529</v>
+        <v>4722.71027</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6978.258289999999</v>
+        <v>7076.58458</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>8218.49747</v>
+        <v>9453.688530000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6847.094939999999</v>
+        <v>7668.50033</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>14267.7504</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>93417.30627999999</v>
+        <v>93534.48186999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>25857.92199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>25869.92538</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>41195.404</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>303378.81304</v>
+        <v>303413.24276</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>300277.76171</v>
+        <v>300291.24323</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>379882.8721499999</v>
+        <v>379898.5488099999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>336326.54211</v>
+        <v>336328.0239699999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1009699.32072</v>
+        <v>1011772.33186</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1134948.76988</v>
+        <v>1214096.51658</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1193714.24782</v>
+        <v>1348073.0186</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1102845.12876</v>
+        <v>1109992.40694</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1264057.73035</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1097813.95111</v>
+        <v>1097913.96911</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2063326.28512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2079152.32314</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1305813.845</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>248297.97829</v>
+        <v>248298.1522900001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>316375.0210599999</v>
+        <v>316863.058</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1334362.59232</v>
+        <v>1334372.96832</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>483535.39373</v>
+        <v>483545.6386599999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>477829.6769899998</v>
+        <v>479900.1057799999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>977020.88465</v>
+        <v>1039904.66984</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>567973.82787</v>
+        <v>592828.4135800001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1109472.89958</v>
+        <v>1112944.78877</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1689408.83669</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1456980.44301</v>
+        <v>1457786.62137</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1405092.99107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1438009.31395</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1329967.956</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>25413.06582</v>
@@ -2798,28 +2939,33 @@
         <v>55832.04563</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>43754.28634</v>
+        <v>44539.53388</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>36744.128</v>
+        <v>37828.27411000001</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>52298.8139</v>
+        <v>54629.88408</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>44421.40093000001</v>
+        <v>44421.40093</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>48539.02729</v>
+        <v>48541.74537</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>73324.20924999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>73328.57424000002</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>180587.866</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>25786.54881</v>
@@ -2834,184 +2980,207 @@
         <v>24164.05477</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>61067.59680000001</v>
+        <v>61129.57661</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>48606.76688</v>
+        <v>48830.64847000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>49517.70387</v>
+        <v>50369.13673000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>41603.35723000001</v>
+        <v>41943.7259</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>33900.29352000001</v>
+        <v>33900.29352</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>64217.66103</v>
+        <v>64701.99781</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>265884.01394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>266321.20535</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>89161.02099999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>197098.36366</v>
+        <v>197098.53766</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>257409.27569</v>
+        <v>257897.31263</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1279017.72506</v>
+        <v>1279028.10106</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>421645.4251499999</v>
+        <v>421655.67008</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>360930.0345600001</v>
+        <v>362938.48354</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>884659.83143</v>
+        <v>946534.48749</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>481711.9959999999</v>
+        <v>504631.00274</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1015570.72845</v>
+        <v>1016371.17879</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1611087.14224</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1344223.75469</v>
+        <v>1344542.87819</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1065884.76788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1098359.53436</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1060219.069</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>575224.6309499998</v>
+        <v>575147.7176700002</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>791044.53666</v>
+        <v>790515.36982</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-504191.6117</v>
+        <v>-504011.85059</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1600348.19019</v>
+        <v>1600035.71432</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-530086.83727</v>
+        <v>-577127.79556</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1943887.44532</v>
+        <v>1982286.96111</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-1622976.66488</v>
+        <v>-1712854.5981</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-7405921.649039999</v>
+        <v>-7385469.020930001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-5313512.511239999</v>
+        <v>-5313512.51124</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4955195.458090001</v>
+        <v>-4949956.024449999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4575855.133359999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4525851.257470001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-22835665.795</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>149095.27156</v>
+        <v>149095.2715600001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>197728.44798</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>310856.3395</v>
+        <v>310880.09827</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>302244.89206</v>
+        <v>302273.61069</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>310690.4224</v>
+        <v>310741.09728</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>389539.7543499999</v>
+        <v>400195.98834</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>344577.19813</v>
+        <v>362532.51002</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>159035.37516</v>
+        <v>167959.34516</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>289038.68101</v>
+        <v>289038.6810100001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>797155.54658</v>
+        <v>798364.7687200002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1020254.95915</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1023102.55288</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>316480.167</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>426129.35939</v>
+        <v>426052.4461100001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>593316.0886799999</v>
+        <v>592786.9218400001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-815047.9512</v>
+        <v>-814891.94886</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1298103.29813</v>
+        <v>1297762.10363</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-840777.2596700001</v>
+        <v>-887868.89284</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1554347.69097</v>
+        <v>1582090.97277</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1967553.86301</v>
+        <v>-2075387.10812</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7564957.0242</v>
+        <v>-7553428.366089999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-5602551.192250001</v>
+        <v>-5602551.19225</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5752351.00467</v>
+        <v>-5748320.793169999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3555600.174209999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3502748.70459</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-23152145.962</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6006</v>
+        <v>6008</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6455</v>
+        <v>6458</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6887</v>
+        <v>6892</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7333</v>
+        <v>7347</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7876</v>
+        <v>7913</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>8378</v>
+        <v>8434</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8754</v>
+        <v>8907</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9190</v>
+        <v>9249</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9762</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9935</v>
+        <v>10229</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11142</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>